--- a/10-razpredelnice/tockovanje.xlsx
+++ b/10-razpredelnice/tockovanje.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katja/Versioned/Predmeti/racunalniski-praktikum/vaje/03-excel/vaje2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOVAN\Racunalniski praktikum\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4BC39C-E016-7A44-8583-BE6404D1B41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3180" yWindow="-26460" windowWidth="34160" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3180" yWindow="-26460" windowWidth="34164" windowHeight="23676"/>
   </bookViews>
   <sheets>
     <sheet name="Točkovanje" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="Točke">Točkovanje!$V$5</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="72">
   <si>
     <t>+</t>
   </si>
@@ -254,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,7 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,14 +802,20 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -868,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -908,9 +916,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,7 +953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,7 +988,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1153,68 +1161,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4.6640625" style="2" customWidth="1"/>
-    <col min="5" max="18" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="46" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" ht="42" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1222,49 +1230,49 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1276,7 +1284,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1286,47 +1294,47 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1336,32 +1344,45 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="R6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="2">
+        <v>94</v>
+      </c>
+      <c r="W6">
+        <f>IF(V6&lt;50, "", IF(V6&lt;60, 6, IF(V6&lt;70, 7, IF(V6&lt;80, 8, IF(V6&lt;90, 9, IF(V6&lt;100, 10))))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1371,16 +1392,22 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1389,17 +1416,24 @@
       <c r="O7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="2">
+        <v>92</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W19" si="0">IF(V7&lt;50, "", IF(V7&lt;60, 6, IF(V7&lt;70, 7, IF(V7&lt;80, 8, IF(V7&lt;90, 9, IF(V7&lt;100, 10))))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1409,29 +1443,42 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="R8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="2">
+        <v>87</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1441,32 +1488,32 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>0</v>
@@ -1474,8 +1521,21 @@
       <c r="R9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="2">
+        <v>84</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1485,29 +1545,29 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>0</v>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>0</v>
@@ -1515,8 +1575,21 @@
       <c r="R10" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="2">
+        <v>83</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1526,32 +1599,45 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="R11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1561,35 +1647,48 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="2">
+        <v>70</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1599,10 +1698,16 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1611,44 +1716,125 @@
       <c r="N13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q13" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="2">
+        <v>69</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <f>SUM(C5:C13)</f>
+        <v>28</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SUM(D5:D13)</f>
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
+        <f>SUMIF(E5:E13,"+",$C5:$C13)+SUMIF(E5:E13, "o", $D5:$D13)</f>
+        <v>18</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:R14" si="1">SUMIF(F5:F13,"+",$C5:$C13)+SUMIF(F5:F13, "o", $D5:$D13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="2">
+        <v>61</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" s="2">
+        <v>55</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1857,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>0</v>
@@ -1680,14 +1869,11 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1697,8 +1883,21 @@
       <c r="R16" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="2">
+        <v>54</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1709,34 +1908,34 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>0</v>
@@ -1744,8 +1943,21 @@
       <c r="R17" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="2">
+        <v>54</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1773,8 +1985,11 @@
       <c r="J18" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>0</v>
@@ -1785,17 +2000,27 @@
       <c r="O18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="Q18" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="2">
+        <v>42</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1827,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>0</v>
@@ -1842,13 +2067,26 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" s="2">
+        <v>38</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1868,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>0</v>
@@ -1879,9 +2117,6 @@
       <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="M20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1889,6 +2124,9 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -1898,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +2162,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -1933,19 +2177,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +2202,10 @@
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -1976,9 +2217,6 @@
       <c r="N22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -1999,20 +2237,23 @@
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>0</v>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>0</v>
@@ -2021,13 +2262,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>0</v>
@@ -2036,31 +2274,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C24" s="6">
+        <f>SUM(C16:C23)</f>
+        <v>28</v>
+      </c>
+      <c r="D24" s="6">
+        <f>SUM(D16:D23)</f>
+        <v>14</v>
+      </c>
+      <c r="E24" s="6">
+        <f>SUMIF(E16:E23,"+",$C16:$C23)+SUMIF(E16:E23, "o", $D16:$D23)</f>
+        <v>25</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:R24" si="2">SUMIF(F16:F23,"+",$C16:$C23)+SUMIF(F16:F23, "o", $D16:$D23)</f>
+        <v>24</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -2104,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -2133,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>0</v>
@@ -2160,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -2192,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>0</v>
@@ -2207,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>0</v>
@@ -2219,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -2245,11 +2531,14 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L29" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2257,19 +2546,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -2280,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>0</v>
@@ -2291,6 +2577,9 @@
       <c r="I30" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J30" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2303,20 +2592,17 @@
       <c r="N30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P30" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>44</v>
       </c>
@@ -2326,20 +2612,20 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>45</v>
       </c>
@@ -2349,9 +2635,6 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2364,23 +2647,26 @@
       <c r="I32" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J32" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="M32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="N32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -2402,29 +2688,29 @@
       <c r="H33" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="P33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -2444,11 +2730,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J34" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2456,14 +2745,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -2485,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>0</v>
@@ -2505,26 +2791,26 @@
       <c r="K35" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L35" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -2546,29 +2832,29 @@
       <c r="H36" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="R36" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -2578,32 +2864,32 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="N37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -2625,29 +2911,29 @@
       <c r="H38" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I38" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2956,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>0</v>
@@ -2679,25 +2968,22 @@
         <v>1</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="P39" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>53</v>
       </c>
@@ -2711,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>0</v>
@@ -2728,26 +3014,26 @@
       <c r="K40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="M40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="P40" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="Q40" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -2757,11 +3043,8 @@
       <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>1</v>
+      <c r="E41" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>1</v>
@@ -2769,20 +3052,23 @@
       <c r="J41" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -2796,76 +3082,175 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="R42" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C43" s="6">
+        <f>SUM(C26:C42)</f>
+        <v>44</v>
+      </c>
+      <c r="D43" s="6">
+        <f>SUM(D26:D42)</f>
+        <v>22</v>
+      </c>
+      <c r="E43" s="6">
+        <f>SUMIF(E26:E42,"+",$C26:$C42)+SUMIF(E26:E42, "o", $D26:$D42)</f>
+        <v>41</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43:R43" si="3">SUMIF(F26:F42,"+",$C26:$C42)+SUMIF(F26:F42, "o", $D26:$D42)</f>
+        <v>31</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="C45" s="5">
+        <f>SUM(C14, C24, C43)</f>
+        <v>100</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" ref="D45:R45" si="4">SUM(D14, D24, D43)</f>
+        <v>50</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="Q45" s="5">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="R45" s="5">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="T6:V19">
+    <sortCondition descending="1" ref="V6:V19"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="T4:W4"/>
   </mergeCells>
